--- a/fastqFiles/fastq_894.xlsx
+++ b/fastqFiles/fastq_894.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B161631-00D3-654C-A4CF-30A49D486D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB05B29-7CD1-6F42-93EF-1361DD4399F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19780" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>libraryDate</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B25 E2:E25"/>
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,7 +524,7 @@
         <v>894</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -541,7 +544,7 @@
         <v>894</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -561,7 +564,7 @@
         <v>894</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -581,7 +584,7 @@
         <v>894</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -601,7 +604,7 @@
         <v>894</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -621,7 +624,7 @@
         <v>894</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -641,7 +644,7 @@
         <v>894</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -661,7 +664,7 @@
         <v>894</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -681,7 +684,7 @@
         <v>894</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -701,7 +704,7 @@
         <v>894</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -721,7 +724,7 @@
         <v>894</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -741,7 +744,7 @@
         <v>894</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -761,7 +764,7 @@
         <v>894</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -781,7 +784,7 @@
         <v>894</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -801,7 +804,7 @@
         <v>894</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -821,7 +824,7 @@
         <v>894</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -841,7 +844,7 @@
         <v>894</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -861,7 +864,7 @@
         <v>894</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -881,7 +884,7 @@
         <v>894</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -901,7 +904,7 @@
         <v>894</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -921,7 +924,7 @@
         <v>894</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -941,7 +944,7 @@
         <v>894</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -961,7 +964,7 @@
         <v>894</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -981,7 +984,7 @@
         <v>894</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>

--- a/fastqFiles/fastq_894.xlsx
+++ b/fastqFiles/fastq_894.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">

--- a/fastqFiles/fastq_894.xlsx
+++ b/fastqFiles/fastq_894.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_894_s_3_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_894_s_3_withindex_sequence_ATCGAGC.fastq.gz</t>
@@ -228,12 +231,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,11 +352,11 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -368,16 +373,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -394,13 +399,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +425,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -443,7 +448,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -466,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -489,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -512,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -535,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -558,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -641,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -664,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -687,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -770,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
